--- a/talaria/Talaria Sting R MX4 (TL4000 MX)/eBikeCheatSheet.xlsx
+++ b/talaria/Talaria Sting R MX4 (TL4000 MX)/eBikeCheatSheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GARAGE\23 Talaria Sting R MX4\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95456776-BEAD-4D40-B1BF-B19080856460}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{405DFF5F-53A1-4486-8378-6C9B3082CC1B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{F9ECE7D7-2BED-463C-9F4B-05DDB7D3AEB1}"/>
   </bookViews>
@@ -2274,9 +2274,58 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="46" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="47" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="7" borderId="44" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="7" borderId="45" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="19" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="20" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="21" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="18" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="5" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -2298,27 +2347,6 @@
     <xf numFmtId="0" fontId="10" fillId="5" borderId="18" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="19" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="20" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="21" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="18" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="5" borderId="26" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2357,34 +2385,6 @@
     </xf>
     <xf numFmtId="0" fontId="10" fillId="5" borderId="43" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="46" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="47" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="7" borderId="44" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="7" borderId="45" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -2766,26 +2766,26 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:7" ht="15.75" thickBot="1">
-      <c r="B2" s="117" t="s">
+      <c r="B2" s="91" t="s">
         <v>223</v>
       </c>
-      <c r="C2" s="117"/>
-      <c r="E2" s="117" t="s">
+      <c r="C2" s="91"/>
+      <c r="E2" s="91" t="s">
         <v>191</v>
       </c>
-      <c r="F2" s="117"/>
+      <c r="F2" s="91"/>
     </row>
     <row r="3" spans="2:7" ht="15.75" thickBot="1">
-      <c r="B3" s="114" t="s">
+      <c r="B3" s="86" t="s">
         <v>121</v>
       </c>
-      <c r="C3" s="115" t="s">
+      <c r="C3" s="87" t="s">
         <v>120</v>
       </c>
-      <c r="E3" s="114" t="s">
+      <c r="E3" s="86" t="s">
         <v>206</v>
       </c>
-      <c r="F3" s="115" t="s">
+      <c r="F3" s="87" t="s">
         <v>207</v>
       </c>
     </row>
@@ -2796,10 +2796,10 @@
       <c r="C4" s="60" t="s">
         <v>113</v>
       </c>
-      <c r="E4" s="112" t="s">
+      <c r="E4" s="84" t="s">
         <v>192</v>
       </c>
-      <c r="F4" s="113" t="s">
+      <c r="F4" s="85" t="s">
         <v>199</v>
       </c>
     </row>
@@ -2813,10 +2813,10 @@
       <c r="D5" t="s">
         <v>122</v>
       </c>
-      <c r="E5" s="112" t="s">
+      <c r="E5" s="84" t="s">
         <v>193</v>
       </c>
-      <c r="F5" s="113" t="s">
+      <c r="F5" s="85" t="s">
         <v>200</v>
       </c>
     </row>
@@ -2827,10 +2827,10 @@
       <c r="C6" s="64" t="s">
         <v>115</v>
       </c>
-      <c r="E6" s="110" t="s">
+      <c r="E6" s="82" t="s">
         <v>194</v>
       </c>
-      <c r="F6" s="111" t="s">
+      <c r="F6" s="83" t="s">
         <v>201</v>
       </c>
     </row>
@@ -2927,28 +2927,28 @@
       </c>
     </row>
     <row r="19" spans="2:6">
-      <c r="B19" s="118" t="s">
+      <c r="B19" s="89" t="s">
         <v>331</v>
       </c>
-      <c r="C19" s="118"/>
-      <c r="D19" s="118" t="s">
+      <c r="C19" s="89"/>
+      <c r="D19" s="89" t="s">
         <v>332</v>
       </c>
-      <c r="E19" s="118" t="s">
+      <c r="E19" s="89" t="s">
         <v>333</v>
       </c>
-      <c r="F19" s="118" t="s">
+      <c r="F19" s="89" t="s">
         <v>334</v>
       </c>
     </row>
     <row r="20" spans="2:6">
-      <c r="B20" s="119" t="s">
+      <c r="B20" s="90" t="s">
         <v>335</v>
       </c>
-      <c r="C20" s="119"/>
-      <c r="D20" s="119"/>
-      <c r="E20" s="119"/>
-      <c r="F20" s="119"/>
+      <c r="C20" s="90"/>
+      <c r="D20" s="90"/>
+      <c r="E20" s="90"/>
+      <c r="F20" s="90"/>
     </row>
     <row r="21" spans="2:6">
       <c r="B21" t="s">
@@ -2973,13 +2973,13 @@
       </c>
     </row>
     <row r="23" spans="2:6">
-      <c r="B23" s="119" t="s">
+      <c r="B23" s="90" t="s">
         <v>336</v>
       </c>
-      <c r="C23" s="119"/>
-      <c r="D23" s="119"/>
-      <c r="E23" s="119"/>
-      <c r="F23" s="119"/>
+      <c r="C23" s="90"/>
+      <c r="D23" s="90"/>
+      <c r="E23" s="90"/>
+      <c r="F23" s="90"/>
     </row>
     <row r="24" spans="2:6">
       <c r="B24" t="s">
@@ -3009,13 +3009,13 @@
       </c>
     </row>
     <row r="27" spans="2:6">
-      <c r="B27" s="119" t="s">
+      <c r="B27" s="90" t="s">
         <v>337</v>
       </c>
-      <c r="C27" s="119"/>
-      <c r="D27" s="119"/>
-      <c r="E27" s="119"/>
-      <c r="F27" s="119"/>
+      <c r="C27" s="90"/>
+      <c r="D27" s="90"/>
+      <c r="E27" s="90"/>
+      <c r="F27" s="90"/>
     </row>
     <row r="28" spans="2:6">
       <c r="B28" t="s">
@@ -3120,13 +3120,13 @@
       </c>
     </row>
     <row r="37" spans="2:6">
-      <c r="B37" s="119" t="s">
+      <c r="B37" s="90" t="s">
         <v>338</v>
       </c>
-      <c r="C37" s="119"/>
-      <c r="D37" s="119"/>
-      <c r="E37" s="119"/>
-      <c r="F37" s="119"/>
+      <c r="C37" s="90"/>
+      <c r="D37" s="90"/>
+      <c r="E37" s="90"/>
+      <c r="F37" s="90"/>
     </row>
     <row r="38" spans="2:6">
       <c r="B38" t="s">
@@ -3159,13 +3159,13 @@
       </c>
     </row>
     <row r="41" spans="2:6">
-      <c r="B41" s="119" t="s">
+      <c r="B41" s="90" t="s">
         <v>339</v>
       </c>
-      <c r="C41" s="119"/>
-      <c r="D41" s="119"/>
-      <c r="E41" s="119"/>
-      <c r="F41" s="119"/>
+      <c r="C41" s="90"/>
+      <c r="D41" s="90"/>
+      <c r="E41" s="90"/>
+      <c r="F41" s="90"/>
     </row>
     <row r="42" spans="2:6">
       <c r="B42" t="s">
@@ -3256,13 +3256,13 @@
       </c>
     </row>
     <row r="50" spans="2:6">
-      <c r="B50" s="119" t="s">
+      <c r="B50" s="90" t="s">
         <v>342</v>
       </c>
-      <c r="C50" s="119"/>
-      <c r="D50" s="119"/>
-      <c r="E50" s="119"/>
-      <c r="F50" s="119"/>
+      <c r="C50" s="90"/>
+      <c r="D50" s="90"/>
+      <c r="E50" s="90"/>
+      <c r="F50" s="90"/>
     </row>
     <row r="51" spans="2:6">
       <c r="B51" t="s">
@@ -3303,13 +3303,13 @@
       </c>
     </row>
     <row r="55" spans="2:6">
-      <c r="B55" s="119" t="s">
+      <c r="B55" s="90" t="s">
         <v>343</v>
       </c>
-      <c r="C55" s="119"/>
-      <c r="D55" s="119"/>
-      <c r="E55" s="119"/>
-      <c r="F55" s="119"/>
+      <c r="C55" s="90"/>
+      <c r="D55" s="90"/>
+      <c r="E55" s="90"/>
+      <c r="F55" s="90"/>
     </row>
     <row r="56" spans="2:6">
       <c r="B56" t="s">
@@ -3366,13 +3366,13 @@
       </c>
     </row>
     <row r="62" spans="2:6">
-      <c r="B62" s="119" t="s">
+      <c r="B62" s="90" t="s">
         <v>344</v>
       </c>
-      <c r="C62" s="119"/>
-      <c r="D62" s="119"/>
-      <c r="E62" s="119"/>
-      <c r="F62" s="119"/>
+      <c r="C62" s="90"/>
+      <c r="D62" s="90"/>
+      <c r="E62" s="90"/>
+      <c r="F62" s="90"/>
     </row>
     <row r="63" spans="2:6">
       <c r="B63" t="s">
@@ -3410,7 +3410,7 @@
       <c r="B67" t="s">
         <v>222</v>
       </c>
-      <c r="D67" s="116" t="s">
+      <c r="D67" s="88" t="s">
         <v>316</v>
       </c>
     </row>
@@ -3964,17 +3964,17 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:10" ht="75" customHeight="1">
-      <c r="B2" s="82" t="s">
+      <c r="B2" s="92" t="s">
         <v>156</v>
       </c>
-      <c r="C2" s="82"/>
-      <c r="D2" s="82"/>
-      <c r="E2" s="82"/>
-      <c r="F2" s="82"/>
-      <c r="G2" s="82"/>
-      <c r="H2" s="82"/>
-      <c r="I2" s="82"/>
-      <c r="J2" s="82"/>
+      <c r="C2" s="92"/>
+      <c r="D2" s="92"/>
+      <c r="E2" s="92"/>
+      <c r="F2" s="92"/>
+      <c r="G2" s="92"/>
+      <c r="H2" s="92"/>
+      <c r="I2" s="92"/>
+      <c r="J2" s="92"/>
     </row>
     <row r="3" spans="2:10" ht="15" customHeight="1">
       <c r="B3" s="68"/>
@@ -4057,17 +4057,17 @@
       </c>
     </row>
     <row r="17" spans="2:10" ht="45" customHeight="1">
-      <c r="B17" s="82" t="s">
+      <c r="B17" s="92" t="s">
         <v>254</v>
       </c>
-      <c r="C17" s="82"/>
-      <c r="D17" s="82"/>
-      <c r="E17" s="82"/>
-      <c r="F17" s="82"/>
-      <c r="G17" s="82"/>
-      <c r="H17" s="82"/>
-      <c r="I17" s="82"/>
-      <c r="J17" s="82"/>
+      <c r="C17" s="92"/>
+      <c r="D17" s="92"/>
+      <c r="E17" s="92"/>
+      <c r="F17" s="92"/>
+      <c r="G17" s="92"/>
+      <c r="H17" s="92"/>
+      <c r="I17" s="92"/>
+      <c r="J17" s="92"/>
     </row>
     <row r="18" spans="2:10" ht="15" customHeight="1">
       <c r="B18" s="68"/>
@@ -4081,17 +4081,17 @@
       <c r="J18" s="68"/>
     </row>
     <row r="19" spans="2:10" ht="45" customHeight="1">
-      <c r="B19" s="82" t="s">
+      <c r="B19" s="92" t="s">
         <v>151</v>
       </c>
-      <c r="C19" s="82"/>
-      <c r="D19" s="82"/>
-      <c r="E19" s="82"/>
-      <c r="F19" s="82"/>
-      <c r="G19" s="82"/>
-      <c r="H19" s="82"/>
-      <c r="I19" s="82"/>
-      <c r="J19" s="82"/>
+      <c r="C19" s="92"/>
+      <c r="D19" s="92"/>
+      <c r="E19" s="92"/>
+      <c r="F19" s="92"/>
+      <c r="G19" s="92"/>
+      <c r="H19" s="92"/>
+      <c r="I19" s="92"/>
+      <c r="J19" s="92"/>
     </row>
     <row r="20" spans="2:10" ht="15" customHeight="1">
       <c r="B20" s="68"/>
@@ -4189,17 +4189,17 @@
       </c>
     </row>
     <row r="38" spans="2:10" ht="45" customHeight="1">
-      <c r="B38" s="82" t="s">
+      <c r="B38" s="92" t="s">
         <v>149</v>
       </c>
-      <c r="C38" s="82"/>
-      <c r="D38" s="82"/>
-      <c r="E38" s="82"/>
-      <c r="F38" s="82"/>
-      <c r="G38" s="82"/>
-      <c r="H38" s="82"/>
-      <c r="I38" s="82"/>
-      <c r="J38" s="82"/>
+      <c r="C38" s="92"/>
+      <c r="D38" s="92"/>
+      <c r="E38" s="92"/>
+      <c r="F38" s="92"/>
+      <c r="G38" s="92"/>
+      <c r="H38" s="92"/>
+      <c r="I38" s="92"/>
+      <c r="J38" s="92"/>
     </row>
     <row r="39" spans="2:10" ht="15" customHeight="1">
       <c r="B39" s="68"/>
@@ -4213,17 +4213,17 @@
       <c r="J39" s="68"/>
     </row>
     <row r="40" spans="2:10" ht="45" customHeight="1">
-      <c r="B40" s="82" t="s">
+      <c r="B40" s="92" t="s">
         <v>150</v>
       </c>
-      <c r="C40" s="82"/>
-      <c r="D40" s="82"/>
-      <c r="E40" s="82"/>
-      <c r="F40" s="82"/>
-      <c r="G40" s="82"/>
-      <c r="H40" s="82"/>
-      <c r="I40" s="82"/>
-      <c r="J40" s="82"/>
+      <c r="C40" s="92"/>
+      <c r="D40" s="92"/>
+      <c r="E40" s="92"/>
+      <c r="F40" s="92"/>
+      <c r="G40" s="92"/>
+      <c r="H40" s="92"/>
+      <c r="I40" s="92"/>
+      <c r="J40" s="92"/>
     </row>
     <row r="42" spans="2:10" ht="15.75" thickBot="1">
       <c r="B42" s="69"/>
@@ -4316,7 +4316,7 @@
       <c r="D3" s="19"/>
     </row>
     <row r="4" spans="2:4">
-      <c r="B4" s="90" t="s">
+      <c r="B4" s="93" t="s">
         <v>157</v>
       </c>
       <c r="C4" s="20" t="s">
@@ -4327,7 +4327,7 @@
       </c>
     </row>
     <row r="5" spans="2:4" ht="14.25" thickBot="1">
-      <c r="B5" s="91"/>
+      <c r="B5" s="95"/>
       <c r="C5" s="22" t="s">
         <v>159</v>
       </c>
@@ -4336,10 +4336,10 @@
       </c>
     </row>
     <row r="6" spans="2:4">
-      <c r="B6" s="83" t="s">
+      <c r="B6" s="100" t="s">
         <v>26</v>
       </c>
-      <c r="C6" s="86" t="s">
+      <c r="C6" s="103" t="s">
         <v>27</v>
       </c>
       <c r="D6" s="24" t="s">
@@ -4347,29 +4347,29 @@
       </c>
     </row>
     <row r="7" spans="2:4">
-      <c r="B7" s="84"/>
-      <c r="C7" s="87"/>
+      <c r="B7" s="101"/>
+      <c r="C7" s="104"/>
       <c r="D7" s="25" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="8" spans="2:4">
-      <c r="B8" s="84"/>
-      <c r="C8" s="87"/>
+      <c r="B8" s="101"/>
+      <c r="C8" s="104"/>
       <c r="D8" s="25" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="9" spans="2:4">
-      <c r="B9" s="84"/>
-      <c r="C9" s="88"/>
+      <c r="B9" s="101"/>
+      <c r="C9" s="105"/>
       <c r="D9" s="26" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="10" spans="2:4">
-      <c r="B10" s="84"/>
-      <c r="C10" s="87" t="s">
+      <c r="B10" s="101"/>
+      <c r="C10" s="104" t="s">
         <v>31</v>
       </c>
       <c r="D10" s="25" t="s">
@@ -4377,24 +4377,24 @@
       </c>
     </row>
     <row r="11" spans="2:4">
-      <c r="B11" s="84"/>
-      <c r="C11" s="87"/>
+      <c r="B11" s="101"/>
+      <c r="C11" s="104"/>
       <c r="D11" s="25" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="12" spans="2:4" ht="27.75" thickBot="1">
-      <c r="B12" s="85"/>
-      <c r="C12" s="89"/>
+      <c r="B12" s="102"/>
+      <c r="C12" s="106"/>
       <c r="D12" s="28" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="13" spans="2:4">
-      <c r="B13" s="90" t="s">
+      <c r="B13" s="93" t="s">
         <v>35</v>
       </c>
-      <c r="C13" s="93" t="s">
+      <c r="C13" s="96" t="s">
         <v>27</v>
       </c>
       <c r="D13" s="29" t="s">
@@ -4402,29 +4402,29 @@
       </c>
     </row>
     <row r="14" spans="2:4">
-      <c r="B14" s="92"/>
-      <c r="C14" s="94"/>
+      <c r="B14" s="94"/>
+      <c r="C14" s="97"/>
       <c r="D14" s="30" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="15" spans="2:4">
-      <c r="B15" s="92"/>
-      <c r="C15" s="94"/>
+      <c r="B15" s="94"/>
+      <c r="C15" s="97"/>
       <c r="D15" s="30" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="16" spans="2:4">
-      <c r="B16" s="92"/>
-      <c r="C16" s="95"/>
+      <c r="B16" s="94"/>
+      <c r="C16" s="98"/>
       <c r="D16" s="31" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="17" spans="2:4">
-      <c r="B17" s="92"/>
-      <c r="C17" s="94" t="s">
+      <c r="B17" s="94"/>
+      <c r="C17" s="97" t="s">
         <v>31</v>
       </c>
       <c r="D17" s="30" t="s">
@@ -4432,38 +4432,38 @@
       </c>
     </row>
     <row r="18" spans="2:4">
-      <c r="B18" s="92"/>
-      <c r="C18" s="94"/>
+      <c r="B18" s="94"/>
+      <c r="C18" s="97"/>
       <c r="D18" s="30" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="19" spans="2:4">
-      <c r="B19" s="92"/>
-      <c r="C19" s="94"/>
+      <c r="B19" s="94"/>
+      <c r="C19" s="97"/>
       <c r="D19" s="30" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="20" spans="2:4">
-      <c r="B20" s="92"/>
-      <c r="C20" s="94"/>
+      <c r="B20" s="94"/>
+      <c r="C20" s="97"/>
       <c r="D20" s="30" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="21" spans="2:4" ht="27.75" thickBot="1">
-      <c r="B21" s="91"/>
-      <c r="C21" s="96"/>
+      <c r="B21" s="95"/>
+      <c r="C21" s="99"/>
       <c r="D21" s="23" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="22" spans="2:4">
-      <c r="B22" s="83" t="s">
+      <c r="B22" s="100" t="s">
         <v>18</v>
       </c>
-      <c r="C22" s="86" t="s">
+      <c r="C22" s="103" t="s">
         <v>45</v>
       </c>
       <c r="D22" s="24" t="s">
@@ -4471,14 +4471,14 @@
       </c>
     </row>
     <row r="23" spans="2:4">
-      <c r="B23" s="84"/>
-      <c r="C23" s="88"/>
+      <c r="B23" s="101"/>
+      <c r="C23" s="105"/>
       <c r="D23" s="26" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="24" spans="2:4" ht="14.25" thickBot="1">
-      <c r="B24" s="85"/>
+      <c r="B24" s="102"/>
       <c r="C24" s="27" t="s">
         <v>48</v>
       </c>
@@ -4487,10 +4487,10 @@
       </c>
     </row>
     <row r="25" spans="2:4">
-      <c r="B25" s="90" t="s">
+      <c r="B25" s="93" t="s">
         <v>19</v>
       </c>
-      <c r="C25" s="93" t="s">
+      <c r="C25" s="96" t="s">
         <v>50</v>
       </c>
       <c r="D25" s="29" t="s">
@@ -4498,36 +4498,36 @@
       </c>
     </row>
     <row r="26" spans="2:4">
-      <c r="B26" s="92"/>
-      <c r="C26" s="94"/>
+      <c r="B26" s="94"/>
+      <c r="C26" s="97"/>
       <c r="D26" s="30" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="27" spans="2:4">
-      <c r="B27" s="92"/>
-      <c r="C27" s="94"/>
+      <c r="B27" s="94"/>
+      <c r="C27" s="97"/>
       <c r="D27" s="30" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="28" spans="2:4">
-      <c r="B28" s="92"/>
-      <c r="C28" s="94"/>
+      <c r="B28" s="94"/>
+      <c r="C28" s="97"/>
       <c r="D28" s="30" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="29" spans="2:4">
-      <c r="B29" s="92"/>
-      <c r="C29" s="95"/>
+      <c r="B29" s="94"/>
+      <c r="C29" s="98"/>
       <c r="D29" s="31" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="30" spans="2:4">
-      <c r="B30" s="92"/>
-      <c r="C30" s="94" t="s">
+      <c r="B30" s="94"/>
+      <c r="C30" s="97" t="s">
         <v>55</v>
       </c>
       <c r="D30" s="30" t="s">
@@ -4535,43 +4535,43 @@
       </c>
     </row>
     <row r="31" spans="2:4">
-      <c r="B31" s="92"/>
-      <c r="C31" s="94"/>
+      <c r="B31" s="94"/>
+      <c r="C31" s="97"/>
       <c r="D31" s="30" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="32" spans="2:4">
-      <c r="B32" s="92"/>
-      <c r="C32" s="94"/>
+      <c r="B32" s="94"/>
+      <c r="C32" s="97"/>
       <c r="D32" s="30" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="33" spans="2:4">
-      <c r="B33" s="92"/>
-      <c r="C33" s="94"/>
+      <c r="B33" s="94"/>
+      <c r="C33" s="97"/>
       <c r="D33" s="30" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="34" spans="2:4">
-      <c r="B34" s="92"/>
-      <c r="C34" s="94"/>
+      <c r="B34" s="94"/>
+      <c r="C34" s="97"/>
       <c r="D34" s="30" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="35" spans="2:4">
-      <c r="B35" s="92"/>
-      <c r="C35" s="94"/>
+      <c r="B35" s="94"/>
+      <c r="C35" s="97"/>
       <c r="D35" s="30" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="36" spans="2:4" ht="14.25" thickBot="1">
-      <c r="B36" s="91"/>
-      <c r="C36" s="96"/>
+      <c r="B36" s="95"/>
+      <c r="C36" s="99"/>
       <c r="D36" s="23" t="s">
         <v>25</v>
       </c>
@@ -4584,10 +4584,10 @@
       <c r="D37" s="34"/>
     </row>
     <row r="38" spans="2:4">
-      <c r="B38" s="83" t="s">
+      <c r="B38" s="100" t="s">
         <v>26</v>
       </c>
-      <c r="C38" s="86" t="s">
+      <c r="C38" s="103" t="s">
         <v>27</v>
       </c>
       <c r="D38" s="24" t="s">
@@ -4595,22 +4595,22 @@
       </c>
     </row>
     <row r="39" spans="2:4">
-      <c r="B39" s="84"/>
-      <c r="C39" s="87"/>
+      <c r="B39" s="101"/>
+      <c r="C39" s="104"/>
       <c r="D39" s="25" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="40" spans="2:4">
-      <c r="B40" s="84"/>
-      <c r="C40" s="88"/>
+      <c r="B40" s="101"/>
+      <c r="C40" s="105"/>
       <c r="D40" s="26" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="41" spans="2:4">
-      <c r="B41" s="84"/>
-      <c r="C41" s="87" t="s">
+      <c r="B41" s="101"/>
+      <c r="C41" s="104" t="s">
         <v>31</v>
       </c>
       <c r="D41" s="25" t="s">
@@ -4618,31 +4618,31 @@
       </c>
     </row>
     <row r="42" spans="2:4">
-      <c r="B42" s="84"/>
-      <c r="C42" s="87"/>
+      <c r="B42" s="101"/>
+      <c r="C42" s="104"/>
       <c r="D42" s="25" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="43" spans="2:4">
-      <c r="B43" s="84"/>
-      <c r="C43" s="87"/>
+      <c r="B43" s="101"/>
+      <c r="C43" s="104"/>
       <c r="D43" s="25" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="44" spans="2:4" ht="14.25" thickBot="1">
-      <c r="B44" s="85"/>
-      <c r="C44" s="89"/>
+      <c r="B44" s="102"/>
+      <c r="C44" s="106"/>
       <c r="D44" s="28" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="45" spans="2:4">
-      <c r="B45" s="90" t="s">
+      <c r="B45" s="93" t="s">
         <v>35</v>
       </c>
-      <c r="C45" s="93" t="s">
+      <c r="C45" s="96" t="s">
         <v>27</v>
       </c>
       <c r="D45" s="29" t="s">
@@ -4650,36 +4650,36 @@
       </c>
     </row>
     <row r="46" spans="2:4">
-      <c r="B46" s="92"/>
-      <c r="C46" s="94"/>
+      <c r="B46" s="94"/>
+      <c r="C46" s="97"/>
       <c r="D46" s="30" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="47" spans="2:4">
-      <c r="B47" s="92"/>
-      <c r="C47" s="94"/>
+      <c r="B47" s="94"/>
+      <c r="C47" s="97"/>
       <c r="D47" s="30" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="48" spans="2:4">
-      <c r="B48" s="92"/>
-      <c r="C48" s="94"/>
+      <c r="B48" s="94"/>
+      <c r="C48" s="97"/>
       <c r="D48" s="30" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="49" spans="2:4">
-      <c r="B49" s="92"/>
-      <c r="C49" s="95"/>
+      <c r="B49" s="94"/>
+      <c r="C49" s="98"/>
       <c r="D49" s="31" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="50" spans="2:4">
-      <c r="B50" s="92"/>
-      <c r="C50" s="94" t="s">
+      <c r="B50" s="94"/>
+      <c r="C50" s="97" t="s">
         <v>31</v>
       </c>
       <c r="D50" s="30" t="s">
@@ -4687,31 +4687,31 @@
       </c>
     </row>
     <row r="51" spans="2:4">
-      <c r="B51" s="92"/>
-      <c r="C51" s="94"/>
+      <c r="B51" s="94"/>
+      <c r="C51" s="97"/>
       <c r="D51" s="30" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="52" spans="2:4">
-      <c r="B52" s="92"/>
-      <c r="C52" s="94"/>
+      <c r="B52" s="94"/>
+      <c r="C52" s="97"/>
       <c r="D52" s="30" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="53" spans="2:4" ht="14.25" thickBot="1">
-      <c r="B53" s="91"/>
-      <c r="C53" s="96"/>
+      <c r="B53" s="95"/>
+      <c r="C53" s="99"/>
       <c r="D53" s="23" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="54" spans="2:4">
-      <c r="B54" s="83" t="s">
+      <c r="B54" s="100" t="s">
         <v>18</v>
       </c>
-      <c r="C54" s="86" t="s">
+      <c r="C54" s="103" t="s">
         <v>45</v>
       </c>
       <c r="D54" s="24" t="s">
@@ -4719,22 +4719,22 @@
       </c>
     </row>
     <row r="55" spans="2:4">
-      <c r="B55" s="84"/>
-      <c r="C55" s="87"/>
+      <c r="B55" s="101"/>
+      <c r="C55" s="104"/>
       <c r="D55" s="25" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="56" spans="2:4">
-      <c r="B56" s="84"/>
-      <c r="C56" s="88"/>
+      <c r="B56" s="101"/>
+      <c r="C56" s="105"/>
       <c r="D56" s="26" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="57" spans="2:4">
-      <c r="B57" s="84"/>
-      <c r="C57" s="87" t="s">
+      <c r="B57" s="101"/>
+      <c r="C57" s="104" t="s">
         <v>48</v>
       </c>
       <c r="D57" s="25" t="s">
@@ -4742,24 +4742,24 @@
       </c>
     </row>
     <row r="58" spans="2:4">
-      <c r="B58" s="84"/>
-      <c r="C58" s="87"/>
+      <c r="B58" s="101"/>
+      <c r="C58" s="104"/>
       <c r="D58" s="25" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="59" spans="2:4" ht="14.25" thickBot="1">
-      <c r="B59" s="85"/>
-      <c r="C59" s="89"/>
+      <c r="B59" s="102"/>
+      <c r="C59" s="106"/>
       <c r="D59" s="28" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="60" spans="2:4">
-      <c r="B60" s="90" t="s">
+      <c r="B60" s="93" t="s">
         <v>19</v>
       </c>
-      <c r="C60" s="93" t="s">
+      <c r="C60" s="96" t="s">
         <v>50</v>
       </c>
       <c r="D60" s="29" t="s">
@@ -4767,22 +4767,22 @@
       </c>
     </row>
     <row r="61" spans="2:4">
-      <c r="B61" s="92"/>
-      <c r="C61" s="94"/>
+      <c r="B61" s="94"/>
+      <c r="C61" s="97"/>
       <c r="D61" s="30" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="62" spans="2:4">
-      <c r="B62" s="92"/>
-      <c r="C62" s="95"/>
+      <c r="B62" s="94"/>
+      <c r="C62" s="98"/>
       <c r="D62" s="31" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="63" spans="2:4">
-      <c r="B63" s="92"/>
-      <c r="C63" s="94" t="s">
+      <c r="B63" s="94"/>
+      <c r="C63" s="97" t="s">
         <v>55</v>
       </c>
       <c r="D63" s="30" t="s">
@@ -4790,15 +4790,15 @@
       </c>
     </row>
     <row r="64" spans="2:4">
-      <c r="B64" s="92"/>
-      <c r="C64" s="94"/>
+      <c r="B64" s="94"/>
+      <c r="C64" s="97"/>
       <c r="D64" s="30" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="65" spans="2:4" ht="14.25" thickBot="1">
-      <c r="B65" s="91"/>
-      <c r="C65" s="96"/>
+      <c r="B65" s="95"/>
+      <c r="C65" s="99"/>
       <c r="D65" s="23" t="s">
         <v>85</v>
       </c>
@@ -4806,15 +4806,6 @@
     <row r="66" spans="2:4"/>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="B60:B65"/>
-    <mergeCell ref="C60:C62"/>
-    <mergeCell ref="C63:C65"/>
-    <mergeCell ref="B45:B53"/>
-    <mergeCell ref="C45:C49"/>
-    <mergeCell ref="C50:C53"/>
-    <mergeCell ref="B54:B59"/>
-    <mergeCell ref="C54:C56"/>
-    <mergeCell ref="C57:C59"/>
     <mergeCell ref="B38:B44"/>
     <mergeCell ref="C38:C40"/>
     <mergeCell ref="C41:C44"/>
@@ -4830,6 +4821,15 @@
     <mergeCell ref="B25:B36"/>
     <mergeCell ref="C25:C29"/>
     <mergeCell ref="C30:C36"/>
+    <mergeCell ref="B60:B65"/>
+    <mergeCell ref="C60:C62"/>
+    <mergeCell ref="C63:C65"/>
+    <mergeCell ref="B45:B53"/>
+    <mergeCell ref="C45:C49"/>
+    <mergeCell ref="C50:C53"/>
+    <mergeCell ref="B54:B59"/>
+    <mergeCell ref="C54:C56"/>
+    <mergeCell ref="C57:C59"/>
   </mergeCells>
   <pageMargins left="0.48" right="0.39" top="0.53" bottom="0.47" header="0.33" footer="0.26"/>
   <pageSetup scale="74" orientation="portrait" verticalDpi="300" r:id="rId1"/>
@@ -4875,7 +4875,7 @@
       </c>
     </row>
     <row r="3" spans="2:5" ht="48" customHeight="1">
-      <c r="B3" s="97" t="s">
+      <c r="B3" s="107" t="s">
         <v>89</v>
       </c>
       <c r="C3" s="40" t="s">
@@ -4887,7 +4887,7 @@
       </c>
     </row>
     <row r="4" spans="2:5" ht="48" customHeight="1" thickBot="1">
-      <c r="B4" s="98"/>
+      <c r="B4" s="108"/>
       <c r="C4" s="43" t="s">
         <v>92</v>
       </c>
@@ -4897,10 +4897,10 @@
       </c>
     </row>
     <row r="5" spans="2:5" ht="47.25" customHeight="1">
-      <c r="B5" s="99" t="s">
+      <c r="B5" s="109" t="s">
         <v>94</v>
       </c>
-      <c r="C5" s="102" t="s">
+      <c r="C5" s="112" t="s">
         <v>95</v>
       </c>
       <c r="D5" s="46" t="s">
@@ -4911,8 +4911,8 @@
       </c>
     </row>
     <row r="6" spans="2:5" ht="47.25" customHeight="1">
-      <c r="B6" s="100"/>
-      <c r="C6" s="103"/>
+      <c r="B6" s="110"/>
+      <c r="C6" s="113"/>
       <c r="D6" s="48" t="s">
         <v>98</v>
       </c>
@@ -4921,8 +4921,8 @@
       </c>
     </row>
     <row r="7" spans="2:5" ht="47.25" customHeight="1">
-      <c r="B7" s="100"/>
-      <c r="C7" s="104" t="s">
+      <c r="B7" s="110"/>
+      <c r="C7" s="114" t="s">
         <v>100</v>
       </c>
       <c r="D7" s="48" t="s">
@@ -4933,8 +4933,8 @@
       </c>
     </row>
     <row r="8" spans="2:5" ht="47.25" customHeight="1" thickBot="1">
-      <c r="B8" s="101"/>
-      <c r="C8" s="105"/>
+      <c r="B8" s="111"/>
+      <c r="C8" s="115"/>
       <c r="D8" s="50" t="s">
         <v>98</v>
       </c>
@@ -4943,10 +4943,10 @@
       </c>
     </row>
     <row r="9" spans="2:5" ht="41.25" customHeight="1">
-      <c r="B9" s="97" t="s">
+      <c r="B9" s="107" t="s">
         <v>103</v>
       </c>
-      <c r="C9" s="107" t="s">
+      <c r="C9" s="117" t="s">
         <v>104</v>
       </c>
       <c r="D9" s="52" t="s">
@@ -4957,8 +4957,8 @@
       </c>
     </row>
     <row r="10" spans="2:5" ht="41.25" customHeight="1">
-      <c r="B10" s="106"/>
-      <c r="C10" s="108"/>
+      <c r="B10" s="116"/>
+      <c r="C10" s="118"/>
       <c r="D10" s="54" t="s">
         <v>107</v>
       </c>
@@ -4967,8 +4967,8 @@
       </c>
     </row>
     <row r="11" spans="2:5" ht="41.25" customHeight="1">
-      <c r="B11" s="106"/>
-      <c r="C11" s="109"/>
+      <c r="B11" s="116"/>
+      <c r="C11" s="119"/>
       <c r="D11" s="54" t="s">
         <v>109</v>
       </c>
@@ -4977,7 +4977,7 @@
       </c>
     </row>
     <row r="12" spans="2:5" ht="41.25" customHeight="1">
-      <c r="B12" s="106"/>
+      <c r="B12" s="116"/>
       <c r="C12" s="56" t="s">
         <v>109</v>
       </c>
@@ -4987,7 +4987,7 @@
       </c>
     </row>
     <row r="13" spans="2:5" ht="43.5" customHeight="1" thickBot="1">
-      <c r="B13" s="98"/>
+      <c r="B13" s="108"/>
       <c r="C13" s="43" t="s">
         <v>111</v>
       </c>
@@ -5016,7 +5016,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D48DCC66-EA8E-48AC-A9DD-150E8DCA1498}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>

--- a/talaria/Talaria Sting R MX4 (TL4000 MX)/eBikeCheatSheet.xlsx
+++ b/talaria/Talaria Sting R MX4 (TL4000 MX)/eBikeCheatSheet.xlsx
@@ -8,24 +8,25 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GARAGE\23 Talaria Sting R MX4\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{405DFF5F-53A1-4486-8378-6C9B3082CC1B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E3ECF27-4D50-43A0-86D4-F3E59ECF6072}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{F9ECE7D7-2BED-463C-9F4B-05DDB7D3AEB1}"/>
   </bookViews>
   <sheets>
-    <sheet name="Specs" sheetId="6" r:id="rId1"/>
-    <sheet name="Bolt Torque" sheetId="11" r:id="rId2"/>
-    <sheet name="Setup Procedure" sheetId="2" r:id="rId3"/>
-    <sheet name="Sag, Rebound, Preload, Comp" sheetId="7" r:id="rId4"/>
-    <sheet name="Adjustments" sheetId="4" r:id="rId5"/>
-    <sheet name="Solution Sheet" sheetId="5" r:id="rId6"/>
-    <sheet name="Wiring Diagram" sheetId="10" r:id="rId7"/>
+    <sheet name="TL-4000 MX4" sheetId="12" r:id="rId1"/>
+    <sheet name="Specs" sheetId="6" r:id="rId2"/>
+    <sheet name="Bolt Torque" sheetId="11" r:id="rId3"/>
+    <sheet name="Setup Procedure" sheetId="2" r:id="rId4"/>
+    <sheet name="Sag, Rebound, Preload, Comp" sheetId="7" r:id="rId5"/>
+    <sheet name="Adjustments" sheetId="4" r:id="rId6"/>
+    <sheet name="Solution Sheet" sheetId="5" r:id="rId7"/>
+    <sheet name="Wiring Diagram" sheetId="10" r:id="rId8"/>
   </sheets>
   <definedNames>
     <definedName name="Offset">#REF!</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="4">Adjustments!$B$2:$D$65</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="2">'Setup Procedure'!$B$2:$J$29</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="5">'Solution Sheet'!$B$2:$E$13</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="5">Adjustments!$B$2:$D$65</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="3">'Setup Procedure'!$B$2:$J$29</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="6">'Solution Sheet'!$B$2:$E$13</definedName>
     <definedName name="radius">#REF!</definedName>
     <definedName name="Rake">#REF!</definedName>
   </definedNames>
@@ -39,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="396" uniqueCount="347">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="446" uniqueCount="394">
   <si>
     <t>a</t>
   </si>
@@ -824,12 +825,6 @@
     <t>80/100-19</t>
   </si>
   <si>
-    <t>1.4x19</t>
-  </si>
-  <si>
-    <t>1.6x19</t>
-  </si>
-  <si>
     <t>Brake Type (Front)</t>
   </si>
   <si>
@@ -848,12 +843,6 @@
     <t>Brake Pads (Rear)</t>
   </si>
   <si>
-    <t>Shimano BR Saint M810</t>
-  </si>
-  <si>
-    <t>Shimano BR Saint M820 ZEE M640</t>
-  </si>
-  <si>
     <t>Sprocket (Front)</t>
   </si>
   <si>
@@ -867,9 +856,6 @@
   </si>
   <si>
     <t>Motor Type</t>
-  </si>
-  <si>
-    <t>Air-Cooled IPM</t>
   </si>
   <si>
     <t>Controller Type</t>
@@ -1081,12 +1067,6 @@
     <t>60 V/ 45 Ah</t>
   </si>
   <si>
-    <t>2-4 hrs</t>
-  </si>
-  <si>
-    <t>135 A</t>
-  </si>
-  <si>
     <t>120 VAC input, 67.2 V max output (60 V nominal), 10 A max charge rate</t>
   </si>
   <si>
@@ -1153,9 +1133,6 @@
     <t>FRAME</t>
   </si>
   <si>
-    <t>FORK</t>
-  </si>
-  <si>
     <t>WHEELS</t>
   </si>
   <si>
@@ -1178,6 +1155,171 @@
   </si>
   <si>
     <t>220x2.3 mm</t>
+  </si>
+  <si>
+    <t>FORK (Fastace / Talaria Factory)</t>
+  </si>
+  <si>
+    <t>SHOCK (Fastace / HT / Talaria Factory)</t>
+  </si>
+  <si>
+    <t>(Factory Limited to 1000W &amp; Speed Factory Limited to 20 mph / 32 kmh)</t>
+  </si>
+  <si>
+    <t>GEARBOX</t>
+  </si>
+  <si>
+    <t>Air-Cooled IPM (Interior Permanent Magnet)</t>
+  </si>
+  <si>
+    <t>Motor Weight</t>
+  </si>
+  <si>
+    <t>7 kg</t>
+  </si>
+  <si>
+    <t>Motor Peak Efficiency</t>
+  </si>
+  <si>
+    <t>CONTROLLER</t>
+  </si>
+  <si>
+    <t>Controller Weight</t>
+  </si>
+  <si>
+    <t>2 kg</t>
+  </si>
+  <si>
+    <t>Controller Dimensions</t>
+  </si>
+  <si>
+    <t>248 x 128 x 50 mm</t>
+  </si>
+  <si>
+    <t>Controller Peak Efficiency</t>
+  </si>
+  <si>
+    <t>Controller Max Work Temp</t>
+  </si>
+  <si>
+    <t>Motor Dimensions</t>
+  </si>
+  <si>
+    <t>180 mm</t>
+  </si>
+  <si>
+    <t>1.4x19 in</t>
+  </si>
+  <si>
+    <t>1.6x19 in</t>
+  </si>
+  <si>
+    <t>(44T)</t>
+  </si>
+  <si>
+    <t>90 ml</t>
+  </si>
+  <si>
+    <t>Shimano BR Saint Pads</t>
+  </si>
+  <si>
+    <t>(Resin Organic Semi-metal Brake Pads for Shimano BR Models: Saint M810, Saint M820 ZEE M640 H01A, H03A Bengal Models: Helix 4X D01S, D02S)</t>
+  </si>
+  <si>
+    <t>125 A</t>
+  </si>
+  <si>
+    <t>2-4 hrs (~3 hrs)</t>
+  </si>
+  <si>
+    <t>15.4 lb</t>
+  </si>
+  <si>
+    <t>4.4 lb</t>
+  </si>
+  <si>
+    <t>9.8 x 5.0 x 2.0 in</t>
+  </si>
+  <si>
+    <t>100 °C</t>
+  </si>
+  <si>
+    <t>212 °F</t>
+  </si>
+  <si>
+    <t>7.1 in</t>
+  </si>
+  <si>
+    <t>5.36 hp</t>
+  </si>
+  <si>
+    <t>10.7 hp</t>
+  </si>
+  <si>
+    <t>75-90 ml</t>
+  </si>
+  <si>
+    <t>2.6 - 3.2 oz</t>
+  </si>
+  <si>
+    <t>3.2 oz</t>
+  </si>
+  <si>
+    <t>Gear Oil Capacity</t>
+  </si>
+  <si>
+    <t>Gear Oil Change Capacity</t>
+  </si>
+  <si>
+    <t>Gear Oil Weight</t>
+  </si>
+  <si>
+    <t>Gear Oil Type</t>
+  </si>
+  <si>
+    <t>GL-5</t>
+  </si>
+  <si>
+    <t>85W90</t>
+  </si>
+  <si>
+    <t>(Factory Oil: Silkolene 1L 85W90 Gear Oil, API GL3 &amp; GL4)</t>
+  </si>
+  <si>
+    <t>(Break-in change at 300 km / 185 mi | then at 3 mo / 1000 km / 620 mi | then 6 mo / 2000 km / 1240 mi)</t>
+  </si>
+  <si>
+    <t>-4 - 120 °F</t>
+  </si>
+  <si>
+    <t>-20 - 50 °C</t>
+  </si>
+  <si>
+    <t>Battery Working Temp Range</t>
+  </si>
+  <si>
+    <t>10 - 30 °C</t>
+  </si>
+  <si>
+    <t>50 - 100 °F</t>
+  </si>
+  <si>
+    <t>Battery BMS Temp Range</t>
+  </si>
+  <si>
+    <t>8.35 (44T)</t>
+  </si>
+  <si>
+    <t>100 - 125 psi</t>
+  </si>
+  <si>
+    <t>689 - 862 kpa</t>
+  </si>
+  <si>
+    <t>Fork Air Pressure</t>
+  </si>
+  <si>
+    <t>44(48)</t>
   </si>
 </sst>
 </file>
@@ -2063,7 +2205,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="120">
+  <cellXfs count="123">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1"/>
@@ -2299,21 +2441,39 @@
     <xf numFmtId="0" fontId="2" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="19" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="20" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="21" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="18" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="4" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="4" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="4" borderId="19" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -2326,27 +2486,6 @@
     <xf numFmtId="0" fontId="10" fillId="4" borderId="18" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="19" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="20" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="21" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="18" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="5" borderId="26" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2385,6 +2524,16 @@
     </xf>
     <xf numFmtId="0" fontId="10" fillId="5" borderId="43" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -2416,17 +2565,271 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>25</xdr:col>
-      <xdr:colOff>85725</xdr:colOff>
-      <xdr:row>54</xdr:row>
-      <xdr:rowOff>20836</xdr:rowOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="383" name="Picture 382">
+        <xdr:cNvPr id="4" name="Picture 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E6456A57-0106-8FC4-60D3-4B3F8F04538C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A2DDCC8-DDA3-064D-1597-9AFC86C6AB62}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="247650" y="190500"/>
+          <a:ext cx="9753600" cy="9753600"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Picture 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{63084756-128D-42F0-472E-0023FDC83D32}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="10001250" y="190500"/>
+          <a:ext cx="9753600" cy="9753600"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>58160</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="Picture 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6BF357AF-D071-9F5A-C6D2-A002F37030BB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="247650" y="0"/>
+          <a:ext cx="9202160" cy="2543175"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>552450</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F253CF7A-6638-2137-D9AF-571A32BB5B1F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="3705225" y="190500"/>
+          <a:ext cx="9086850" cy="6172200"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>383095</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>172910</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6ABABAD1-265C-739B-2F03-05650C6DB992}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2443,7 +2846,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="247650" y="190500"/>
-          <a:ext cx="14716125" cy="10117336"/>
+          <a:ext cx="15013495" cy="10459910"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2751,29 +3154,45 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DEE62DAB-F2E1-41DB-8740-8AE0379505E6}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="3.7109375" customWidth="1"/>
+  </cols>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{60013096-9948-4FE4-830D-84EED51AC5A9}">
-  <dimension ref="B2:G68"/>
+  <dimension ref="B1:G87"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="3.7109375" customWidth="1"/>
     <col min="2" max="2" width="14.42578125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15" customWidth="1"/>
-    <col min="4" max="4" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="17.7109375" customWidth="1"/>
   </cols>
   <sheetData>
+    <row r="1" spans="2:7" ht="15.75" thickBot="1"/>
     <row r="2" spans="2:7" ht="15.75" thickBot="1">
-      <c r="B2" s="91" t="s">
+      <c r="B2" s="121" t="s">
         <v>223</v>
       </c>
-      <c r="C2" s="91"/>
-      <c r="E2" s="91" t="s">
+      <c r="C2" s="122"/>
+      <c r="E2" s="121" t="s">
         <v>191</v>
       </c>
-      <c r="F2" s="91"/>
+      <c r="F2" s="122"/>
     </row>
     <row r="3" spans="2:7" ht="15.75" thickBot="1">
       <c r="B3" s="86" t="s">
@@ -2804,8 +3223,8 @@
       </c>
     </row>
     <row r="5" spans="2:7">
-      <c r="B5" s="61">
-        <v>48</v>
+      <c r="B5" s="61" t="s">
+        <v>393</v>
       </c>
       <c r="C5" s="62" t="s">
         <v>114</v>
@@ -2902,226 +3321,260 @@
       </c>
     </row>
     <row r="13" spans="2:7">
-      <c r="B13" s="58" t="s">
-        <v>270</v>
+      <c r="B13" s="89" t="s">
+        <v>324</v>
+      </c>
+      <c r="C13" s="89"/>
+      <c r="D13" s="89" t="s">
+        <v>325</v>
+      </c>
+      <c r="E13" s="89" t="s">
+        <v>326</v>
+      </c>
+      <c r="F13" s="89" t="s">
+        <v>327</v>
       </c>
     </row>
     <row r="14" spans="2:7">
-      <c r="B14" t="s">
-        <v>271</v>
-      </c>
+      <c r="B14" s="90" t="s">
+        <v>328</v>
+      </c>
+      <c r="C14" s="90"/>
+      <c r="D14" s="90"/>
+      <c r="E14" s="90"/>
+      <c r="F14" s="90"/>
     </row>
     <row r="15" spans="2:7">
       <c r="B15" t="s">
-        <v>123</v>
+        <v>124</v>
+      </c>
+      <c r="D15" t="s">
+        <v>268</v>
+      </c>
+      <c r="E15" t="s">
+        <v>269</v>
       </c>
     </row>
     <row r="16" spans="2:7">
       <c r="B16" t="s">
+        <v>217</v>
+      </c>
+      <c r="D16" t="s">
+        <v>271</v>
+      </c>
+      <c r="E16" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="17" spans="2:6">
+      <c r="B17" s="90" t="s">
+        <v>329</v>
+      </c>
+      <c r="C17" s="90"/>
+      <c r="D17" s="90"/>
+      <c r="E17" s="90"/>
+      <c r="F17" s="90"/>
+    </row>
+    <row r="18" spans="2:6">
+      <c r="B18" t="s">
+        <v>126</v>
+      </c>
+      <c r="D18" t="s">
         <v>272</v>
       </c>
-    </row>
-    <row r="17" spans="2:6">
-      <c r="B17" t="s">
-        <v>125</v>
+      <c r="E18" t="s">
+        <v>273</v>
       </c>
     </row>
     <row r="19" spans="2:6">
-      <c r="B19" s="89" t="s">
-        <v>331</v>
-      </c>
-      <c r="C19" s="89"/>
-      <c r="D19" s="89" t="s">
-        <v>332</v>
-      </c>
-      <c r="E19" s="89" t="s">
-        <v>333</v>
-      </c>
-      <c r="F19" s="89" t="s">
-        <v>334</v>
+      <c r="B19" t="s">
+        <v>241</v>
+      </c>
+      <c r="D19" t="s">
+        <v>243</v>
       </c>
     </row>
     <row r="20" spans="2:6">
-      <c r="B20" s="90" t="s">
-        <v>335</v>
-      </c>
-      <c r="C20" s="90"/>
-      <c r="D20" s="90"/>
-      <c r="E20" s="90"/>
-      <c r="F20" s="90"/>
+      <c r="B20" t="s">
+        <v>242</v>
+      </c>
+      <c r="D20" t="s">
+        <v>202</v>
+      </c>
     </row>
     <row r="21" spans="2:6">
-      <c r="B21" t="s">
-        <v>124</v>
-      </c>
-      <c r="D21" t="s">
-        <v>273</v>
-      </c>
-      <c r="E21" t="s">
-        <v>274</v>
-      </c>
+      <c r="B21" s="90" t="s">
+        <v>330</v>
+      </c>
+      <c r="C21" s="90"/>
+      <c r="D21" s="90"/>
+      <c r="E21" s="90"/>
+      <c r="F21" s="90"/>
     </row>
     <row r="22" spans="2:6">
       <c r="B22" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="D22" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="E22" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="23" spans="2:6">
+      <c r="B23" t="s">
+        <v>209</v>
+      </c>
+      <c r="D23" t="s">
         <v>275</v>
       </c>
-    </row>
-    <row r="23" spans="2:6">
-      <c r="B23" s="90" t="s">
-        <v>336</v>
-      </c>
-      <c r="C23" s="90"/>
-      <c r="D23" s="90"/>
-      <c r="E23" s="90"/>
-      <c r="F23" s="90"/>
+      <c r="E23" t="s">
+        <v>290</v>
+      </c>
     </row>
     <row r="24" spans="2:6">
       <c r="B24" t="s">
-        <v>126</v>
+        <v>185</v>
       </c>
       <c r="D24" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="E24" t="s">
-        <v>278</v>
+        <v>289</v>
       </c>
     </row>
     <row r="25" spans="2:6">
       <c r="B25" t="s">
-        <v>245</v>
+        <v>188</v>
       </c>
       <c r="D25" t="s">
-        <v>247</v>
+        <v>277</v>
+      </c>
+      <c r="E25" t="s">
+        <v>288</v>
       </c>
     </row>
     <row r="26" spans="2:6">
       <c r="B26" t="s">
-        <v>246</v>
+        <v>186</v>
       </c>
       <c r="D26" t="s">
-        <v>202</v>
+        <v>278</v>
+      </c>
+      <c r="E26" t="s">
+        <v>287</v>
       </c>
     </row>
     <row r="27" spans="2:6">
-      <c r="B27" s="90" t="s">
-        <v>337</v>
-      </c>
-      <c r="C27" s="90"/>
-      <c r="D27" s="90"/>
-      <c r="E27" s="90"/>
-      <c r="F27" s="90"/>
+      <c r="B27" t="s">
+        <v>184</v>
+      </c>
+      <c r="D27" t="s">
+        <v>279</v>
+      </c>
+      <c r="E27" t="s">
+        <v>286</v>
+      </c>
     </row>
     <row r="28" spans="2:6">
       <c r="B28" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="D28" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="E28" t="s">
-        <v>296</v>
+        <v>285</v>
       </c>
     </row>
     <row r="29" spans="2:6">
       <c r="B29" t="s">
-        <v>209</v>
+        <v>187</v>
       </c>
       <c r="D29" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="E29" t="s">
-        <v>295</v>
+        <v>284</v>
       </c>
     </row>
     <row r="30" spans="2:6">
       <c r="B30" t="s">
-        <v>185</v>
+        <v>220</v>
       </c>
       <c r="D30" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="E30" t="s">
-        <v>294</v>
+        <v>283</v>
+      </c>
+      <c r="F30" t="s">
+        <v>221</v>
       </c>
     </row>
     <row r="31" spans="2:6">
-      <c r="B31" t="s">
-        <v>188</v>
-      </c>
-      <c r="D31" t="s">
-        <v>282</v>
-      </c>
-      <c r="E31" t="s">
-        <v>293</v>
-      </c>
+      <c r="B31" s="90" t="s">
+        <v>339</v>
+      </c>
+      <c r="C31" s="90"/>
+      <c r="D31" s="90"/>
+      <c r="E31" s="90"/>
+      <c r="F31" s="90"/>
     </row>
     <row r="32" spans="2:6">
       <c r="B32" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="D32" t="s">
-        <v>283</v>
-      </c>
-      <c r="E32" t="s">
-        <v>292</v>
+        <v>183</v>
       </c>
     </row>
     <row r="33" spans="2:6">
       <c r="B33" t="s">
-        <v>184</v>
+        <v>189</v>
       </c>
       <c r="D33" t="s">
-        <v>284</v>
+        <v>292</v>
       </c>
       <c r="E33" t="s">
-        <v>291</v>
+        <v>294</v>
       </c>
     </row>
     <row r="34" spans="2:6">
       <c r="B34" t="s">
-        <v>208</v>
+        <v>392</v>
       </c>
       <c r="D34" t="s">
-        <v>285</v>
+        <v>391</v>
       </c>
       <c r="E34" t="s">
-        <v>290</v>
+        <v>390</v>
       </c>
     </row>
     <row r="35" spans="2:6">
-      <c r="B35" t="s">
-        <v>187</v>
-      </c>
-      <c r="D35" t="s">
-        <v>286</v>
-      </c>
-      <c r="E35" t="s">
-        <v>289</v>
-      </c>
+      <c r="B35" s="90" t="s">
+        <v>340</v>
+      </c>
+      <c r="C35" s="90"/>
+      <c r="D35" s="90"/>
+      <c r="E35" s="90"/>
+      <c r="F35" s="90"/>
     </row>
     <row r="36" spans="2:6">
       <c r="B36" t="s">
-        <v>220</v>
+        <v>190</v>
       </c>
       <c r="D36" t="s">
-        <v>287</v>
+        <v>293</v>
       </c>
       <c r="E36" t="s">
-        <v>288</v>
-      </c>
-      <c r="F36" t="s">
-        <v>221</v>
+        <v>295</v>
       </c>
     </row>
     <row r="37" spans="2:6">
       <c r="B37" s="90" t="s">
-        <v>338</v>
+        <v>331</v>
       </c>
       <c r="C37" s="90"/>
       <c r="D37" s="90"/>
@@ -3130,313 +3583,483 @@
     </row>
     <row r="38" spans="2:6">
       <c r="B38" t="s">
-        <v>182</v>
+        <v>226</v>
       </c>
       <c r="D38" t="s">
-        <v>183</v>
+        <v>298</v>
+      </c>
+      <c r="F38" t="s">
+        <v>227</v>
       </c>
     </row>
     <row r="39" spans="2:6">
       <c r="B39" t="s">
-        <v>189</v>
+        <v>218</v>
       </c>
       <c r="D39" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="E39" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
     </row>
     <row r="40" spans="2:6">
       <c r="B40" t="s">
-        <v>190</v>
+        <v>219</v>
       </c>
       <c r="D40" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="E40" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
     </row>
     <row r="41" spans="2:6">
-      <c r="B41" s="90" t="s">
-        <v>339</v>
-      </c>
-      <c r="C41" s="90"/>
-      <c r="D41" s="90"/>
-      <c r="E41" s="90"/>
-      <c r="F41" s="90"/>
+      <c r="B41" t="s">
+        <v>229</v>
+      </c>
+      <c r="D41" t="s">
+        <v>233</v>
+      </c>
+      <c r="E41" t="s">
+        <v>333</v>
+      </c>
     </row>
     <row r="42" spans="2:6">
       <c r="B42" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="D42" t="s">
-        <v>303</v>
-      </c>
-      <c r="F42" t="s">
-        <v>227</v>
+        <v>234</v>
+      </c>
+      <c r="E42" t="s">
+        <v>332</v>
       </c>
     </row>
     <row r="43" spans="2:6">
       <c r="B43" t="s">
-        <v>218</v>
-      </c>
-      <c r="D43" t="s">
-        <v>304</v>
+        <v>231</v>
       </c>
       <c r="E43" t="s">
+        <v>356</v>
+      </c>
+      <c r="F43" t="s">
         <v>301</v>
       </c>
     </row>
     <row r="44" spans="2:6">
       <c r="B44" t="s">
-        <v>219</v>
-      </c>
-      <c r="D44" t="s">
-        <v>305</v>
+        <v>232</v>
       </c>
       <c r="E44" t="s">
-        <v>302</v>
+        <v>357</v>
+      </c>
+      <c r="F44" t="s">
+        <v>301</v>
       </c>
     </row>
     <row r="45" spans="2:6">
       <c r="B45" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="D45" t="s">
-        <v>233</v>
-      </c>
-      <c r="E45" t="s">
-        <v>341</v>
+        <v>224</v>
+      </c>
+      <c r="F45" t="s">
+        <v>228</v>
       </c>
     </row>
     <row r="46" spans="2:6">
-      <c r="B46" t="s">
-        <v>230</v>
-      </c>
-      <c r="D46" t="s">
-        <v>234</v>
-      </c>
-      <c r="E46" t="s">
-        <v>340</v>
-      </c>
+      <c r="B46" s="90" t="s">
+        <v>334</v>
+      </c>
+      <c r="C46" s="90"/>
+      <c r="D46" s="90"/>
+      <c r="E46" s="90"/>
+      <c r="F46" s="90"/>
     </row>
     <row r="47" spans="2:6">
       <c r="B47" t="s">
-        <v>231</v>
-      </c>
-      <c r="E47" t="s">
         <v>235</v>
       </c>
+      <c r="D47" t="s">
+        <v>338</v>
+      </c>
       <c r="F47" t="s">
-        <v>306</v>
+        <v>237</v>
       </c>
     </row>
     <row r="48" spans="2:6">
       <c r="B48" t="s">
-        <v>232</v>
-      </c>
-      <c r="E48" t="s">
         <v>236</v>
       </c>
+      <c r="D48" t="s">
+        <v>337</v>
+      </c>
       <c r="F48" t="s">
-        <v>306</v>
+        <v>238</v>
       </c>
     </row>
     <row r="49" spans="2:6">
       <c r="B49" t="s">
-        <v>225</v>
+        <v>239</v>
       </c>
       <c r="D49" t="s">
-        <v>224</v>
+        <v>360</v>
       </c>
       <c r="F49" t="s">
-        <v>228</v>
+        <v>361</v>
       </c>
     </row>
     <row r="50" spans="2:6">
-      <c r="B50" s="90" t="s">
-        <v>342</v>
-      </c>
-      <c r="C50" s="90"/>
-      <c r="D50" s="90"/>
-      <c r="E50" s="90"/>
-      <c r="F50" s="90"/>
+      <c r="B50" t="s">
+        <v>240</v>
+      </c>
+      <c r="D50" t="s">
+        <v>360</v>
+      </c>
+      <c r="F50" t="s">
+        <v>361</v>
+      </c>
     </row>
     <row r="51" spans="2:6">
-      <c r="B51" t="s">
-        <v>237</v>
-      </c>
-      <c r="D51" t="s">
-        <v>346</v>
-      </c>
-      <c r="F51" t="s">
-        <v>239</v>
-      </c>
+      <c r="B51" s="90" t="s">
+        <v>335</v>
+      </c>
+      <c r="C51" s="90"/>
+      <c r="D51" s="90"/>
+      <c r="E51" s="90"/>
+      <c r="F51" s="90"/>
     </row>
     <row r="52" spans="2:6">
       <c r="B52" t="s">
-        <v>238</v>
+        <v>212</v>
       </c>
       <c r="D52" t="s">
-        <v>345</v>
+        <v>302</v>
+      </c>
+      <c r="E52" t="s">
+        <v>370</v>
       </c>
       <c r="F52" t="s">
-        <v>240</v>
+        <v>341</v>
       </c>
     </row>
     <row r="53" spans="2:6">
       <c r="B53" t="s">
-        <v>241</v>
+        <v>213</v>
       </c>
       <c r="D53" t="s">
-        <v>243</v>
+        <v>303</v>
+      </c>
+      <c r="E53" t="s">
+        <v>371</v>
       </c>
     </row>
     <row r="54" spans="2:6">
       <c r="B54" t="s">
-        <v>242</v>
+        <v>214</v>
       </c>
       <c r="D54" t="s">
-        <v>244</v>
+        <v>304</v>
+      </c>
+      <c r="E54" t="s">
+        <v>305</v>
       </c>
     </row>
     <row r="55" spans="2:6">
-      <c r="B55" s="90" t="s">
-        <v>343</v>
-      </c>
-      <c r="C55" s="90"/>
-      <c r="D55" s="90"/>
-      <c r="E55" s="90"/>
-      <c r="F55" s="90"/>
+      <c r="B55" t="s">
+        <v>346</v>
+      </c>
+      <c r="D55" s="119">
+        <v>0.92</v>
+      </c>
     </row>
     <row r="56" spans="2:6">
       <c r="B56" t="s">
-        <v>212</v>
+        <v>245</v>
       </c>
       <c r="D56" t="s">
-        <v>307</v>
+        <v>343</v>
       </c>
     </row>
     <row r="57" spans="2:6">
       <c r="B57" t="s">
-        <v>213</v>
+        <v>344</v>
       </c>
       <c r="D57" t="s">
-        <v>308</v>
+        <v>345</v>
+      </c>
+      <c r="E57" t="s">
+        <v>364</v>
       </c>
     </row>
     <row r="58" spans="2:6">
       <c r="B58" t="s">
-        <v>214</v>
+        <v>354</v>
       </c>
       <c r="D58" t="s">
-        <v>309</v>
+        <v>355</v>
       </c>
       <c r="E58" t="s">
-        <v>310</v>
+        <v>369</v>
       </c>
     </row>
     <row r="59" spans="2:6">
       <c r="B59" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="D59" t="s">
-        <v>250</v>
+        <v>306</v>
+      </c>
+      <c r="E59" t="s">
+        <v>307</v>
+      </c>
+      <c r="F59" t="s">
+        <v>358</v>
       </c>
     </row>
     <row r="60" spans="2:6">
-      <c r="B60" t="s">
-        <v>251</v>
-      </c>
-      <c r="D60" t="s">
-        <v>252</v>
-      </c>
+      <c r="B60" s="90" t="s">
+        <v>347</v>
+      </c>
+      <c r="C60" s="90"/>
+      <c r="D60" s="90"/>
+      <c r="E60" s="90"/>
+      <c r="F60" s="90"/>
     </row>
     <row r="61" spans="2:6">
       <c r="B61" t="s">
-        <v>253</v>
+        <v>246</v>
       </c>
       <c r="D61" t="s">
-        <v>311</v>
-      </c>
-      <c r="E61" t="s">
-        <v>312</v>
+        <v>247</v>
       </c>
     </row>
     <row r="62" spans="2:6">
-      <c r="B62" s="90" t="s">
-        <v>344</v>
-      </c>
-      <c r="C62" s="90"/>
-      <c r="D62" s="90"/>
-      <c r="E62" s="90"/>
-      <c r="F62" s="90"/>
+      <c r="B62" t="s">
+        <v>348</v>
+      </c>
+      <c r="D62" t="s">
+        <v>349</v>
+      </c>
+      <c r="E62" t="s">
+        <v>365</v>
+      </c>
     </row>
     <row r="63" spans="2:6">
       <c r="B63" t="s">
-        <v>215</v>
+        <v>350</v>
       </c>
       <c r="D63" t="s">
-        <v>313</v>
+        <v>351</v>
+      </c>
+      <c r="E63" t="s">
+        <v>366</v>
       </c>
     </row>
     <row r="64" spans="2:6">
       <c r="B64" t="s">
-        <v>268</v>
-      </c>
-      <c r="D64" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="65" spans="2:5">
+        <v>352</v>
+      </c>
+      <c r="D64" s="119">
+        <v>0.92</v>
+      </c>
+    </row>
+    <row r="65" spans="2:6">
       <c r="B65" t="s">
-        <v>248</v>
+        <v>353</v>
       </c>
       <c r="D65" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="66" spans="2:5">
-      <c r="B66" t="s">
+        <v>367</v>
+      </c>
+      <c r="E65" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="66" spans="2:6">
+      <c r="B66" s="90" t="s">
+        <v>342</v>
+      </c>
+      <c r="C66" s="90"/>
+      <c r="D66" s="90"/>
+      <c r="E66" s="90"/>
+      <c r="F66" s="90"/>
+    </row>
+    <row r="67" spans="2:6">
+      <c r="B67" t="s">
+        <v>191</v>
+      </c>
+      <c r="D67" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="68" spans="2:6">
+      <c r="B68" t="s">
+        <v>375</v>
+      </c>
+      <c r="D68" t="s">
+        <v>359</v>
+      </c>
+      <c r="E68" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="69" spans="2:6">
+      <c r="B69" t="s">
+        <v>376</v>
+      </c>
+      <c r="D69" t="s">
+        <v>372</v>
+      </c>
+      <c r="E69" t="s">
+        <v>373</v>
+      </c>
+      <c r="F69" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="70" spans="2:6">
+      <c r="B70" t="s">
+        <v>377</v>
+      </c>
+      <c r="D70" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="71" spans="2:6">
+      <c r="B71" t="s">
+        <v>378</v>
+      </c>
+      <c r="D71" t="s">
+        <v>379</v>
+      </c>
+      <c r="F71" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="72" spans="2:6">
+      <c r="B72" s="90" t="s">
+        <v>336</v>
+      </c>
+      <c r="C72" s="90"/>
+      <c r="D72" s="90"/>
+      <c r="E72" s="90"/>
+      <c r="F72" s="90"/>
+    </row>
+    <row r="73" spans="2:6">
+      <c r="B73" t="s">
+        <v>215</v>
+      </c>
+      <c r="D73" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="74" spans="2:6">
+      <c r="B74" t="s">
+        <v>263</v>
+      </c>
+      <c r="D74" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="75" spans="2:6">
+      <c r="B75" t="s">
+        <v>244</v>
+      </c>
+      <c r="D75" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="76" spans="2:6">
+      <c r="B76" t="s">
         <v>216</v>
       </c>
-      <c r="D66" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="67" spans="2:5">
-      <c r="B67" t="s">
+      <c r="D76" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="77" spans="2:6">
+      <c r="B77" t="s">
         <v>222</v>
       </c>
-      <c r="D67" s="88" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="68" spans="2:5">
-      <c r="B68" t="s">
+      <c r="D77" s="88" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="78" spans="2:6">
+      <c r="B78" t="s">
         <v>210</v>
       </c>
-      <c r="D68" t="s">
-        <v>317</v>
-      </c>
-      <c r="E68" t="s">
-        <v>318</v>
+      <c r="D78" t="s">
+        <v>310</v>
+      </c>
+      <c r="E78" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="79" spans="2:6">
+      <c r="B79" t="s">
+        <v>388</v>
+      </c>
+      <c r="D79" s="120" t="s">
+        <v>384</v>
+      </c>
+      <c r="E79" s="120" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="80" spans="2:6">
+      <c r="B80" t="s">
+        <v>385</v>
+      </c>
+      <c r="D80" s="120" t="s">
+        <v>386</v>
+      </c>
+      <c r="E80" s="120" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="83" spans="2:2">
+      <c r="B83" s="58" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="84" spans="2:2">
+      <c r="B84" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="85" spans="2:2">
+      <c r="B85" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="86" spans="2:2">
+      <c r="B86" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="87" spans="2:2">
+      <c r="B87" t="s">
+        <v>125</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
-    <mergeCell ref="B41:F41"/>
-    <mergeCell ref="B50:F50"/>
-    <mergeCell ref="B55:F55"/>
-    <mergeCell ref="B62:F62"/>
+  <mergeCells count="13">
+    <mergeCell ref="B37:F37"/>
+    <mergeCell ref="B46:F46"/>
+    <mergeCell ref="B51:F51"/>
+    <mergeCell ref="B72:F72"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="E2:F2"/>
-    <mergeCell ref="B20:F20"/>
-    <mergeCell ref="B23:F23"/>
-    <mergeCell ref="B27:F27"/>
-    <mergeCell ref="B37:F37"/>
+    <mergeCell ref="B14:F14"/>
+    <mergeCell ref="B17:F17"/>
+    <mergeCell ref="B21:F21"/>
+    <mergeCell ref="B31:F31"/>
+    <mergeCell ref="B35:F35"/>
+    <mergeCell ref="B66:F66"/>
+    <mergeCell ref="B60:F60"/>
   </mergeCells>
   <phoneticPr fontId="15" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3444,7 +4067,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{50A18485-69FC-4330-BF82-DD40CF1380DB}">
   <dimension ref="B2:D20"/>
   <sheetViews>
@@ -3460,132 +4083,133 @@
   <sheetData>
     <row r="2" spans="2:4">
       <c r="B2" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="D2" t="s">
-        <v>319</v>
+        <v>312</v>
       </c>
     </row>
     <row r="3" spans="2:4">
       <c r="B3" t="s">
-        <v>258</v>
+        <v>253</v>
       </c>
       <c r="D3" t="s">
-        <v>320</v>
+        <v>313</v>
       </c>
     </row>
     <row r="4" spans="2:4">
       <c r="B4" t="s">
-        <v>330</v>
+        <v>323</v>
       </c>
     </row>
     <row r="5" spans="2:4">
       <c r="B5" t="s">
-        <v>328</v>
+        <v>321</v>
       </c>
       <c r="D5" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
     </row>
     <row r="6" spans="2:4">
       <c r="B6" t="s">
-        <v>329</v>
+        <v>322</v>
       </c>
     </row>
     <row r="7" spans="2:4">
       <c r="B7" t="s">
-        <v>260</v>
+        <v>255</v>
       </c>
       <c r="D7" t="s">
-        <v>322</v>
+        <v>315</v>
       </c>
     </row>
     <row r="8" spans="2:4">
       <c r="B8" t="s">
-        <v>261</v>
+        <v>256</v>
       </c>
       <c r="D8" t="s">
-        <v>322</v>
+        <v>315</v>
       </c>
     </row>
     <row r="10" spans="2:4">
       <c r="B10" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
       <c r="D10" t="s">
-        <v>322</v>
+        <v>315</v>
       </c>
     </row>
     <row r="11" spans="2:4">
       <c r="B11" t="s">
-        <v>255</v>
+        <v>250</v>
       </c>
       <c r="D11" t="s">
-        <v>323</v>
+        <v>316</v>
       </c>
     </row>
     <row r="12" spans="2:4">
       <c r="B12" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="D12" t="s">
-        <v>322</v>
+        <v>315</v>
       </c>
     </row>
     <row r="13" spans="2:4">
       <c r="B13" t="s">
-        <v>256</v>
+        <v>251</v>
       </c>
       <c r="D13" t="s">
-        <v>324</v>
+        <v>317</v>
       </c>
     </row>
     <row r="14" spans="2:4">
       <c r="B14" t="s">
-        <v>257</v>
+        <v>252</v>
       </c>
       <c r="D14" t="s">
-        <v>325</v>
+        <v>318</v>
       </c>
     </row>
     <row r="15" spans="2:4">
       <c r="B15" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
       <c r="D15" t="s">
-        <v>326</v>
+        <v>319</v>
       </c>
     </row>
     <row r="17" spans="2:4">
       <c r="B17" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="D17" t="s">
-        <v>325</v>
+        <v>318</v>
       </c>
     </row>
     <row r="19" spans="2:4">
       <c r="B19" t="s">
-        <v>262</v>
+        <v>257</v>
       </c>
       <c r="D19" t="s">
-        <v>325</v>
+        <v>318</v>
       </c>
     </row>
     <row r="20" spans="2:4">
       <c r="B20" t="s">
-        <v>263</v>
+        <v>258</v>
       </c>
       <c r="D20" t="s">
-        <v>327</v>
+        <v>320</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{15BC66C8-8332-4DFB-AE11-A5F853E45089}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
@@ -3949,7 +4573,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{23F76CD1-9769-4D22-8E8D-8890FB70729B}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
@@ -3964,17 +4588,17 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:10" ht="75" customHeight="1">
-      <c r="B2" s="92" t="s">
+      <c r="B2" s="91" t="s">
         <v>156</v>
       </c>
-      <c r="C2" s="92"/>
-      <c r="D2" s="92"/>
-      <c r="E2" s="92"/>
-      <c r="F2" s="92"/>
-      <c r="G2" s="92"/>
-      <c r="H2" s="92"/>
-      <c r="I2" s="92"/>
-      <c r="J2" s="92"/>
+      <c r="C2" s="91"/>
+      <c r="D2" s="91"/>
+      <c r="E2" s="91"/>
+      <c r="F2" s="91"/>
+      <c r="G2" s="91"/>
+      <c r="H2" s="91"/>
+      <c r="I2" s="91"/>
+      <c r="J2" s="91"/>
     </row>
     <row r="3" spans="2:10" ht="15" customHeight="1">
       <c r="B3" s="68"/>
@@ -4057,17 +4681,17 @@
       </c>
     </row>
     <row r="17" spans="2:10" ht="45" customHeight="1">
-      <c r="B17" s="92" t="s">
-        <v>254</v>
-      </c>
-      <c r="C17" s="92"/>
-      <c r="D17" s="92"/>
-      <c r="E17" s="92"/>
-      <c r="F17" s="92"/>
-      <c r="G17" s="92"/>
-      <c r="H17" s="92"/>
-      <c r="I17" s="92"/>
-      <c r="J17" s="92"/>
+      <c r="B17" s="91" t="s">
+        <v>249</v>
+      </c>
+      <c r="C17" s="91"/>
+      <c r="D17" s="91"/>
+      <c r="E17" s="91"/>
+      <c r="F17" s="91"/>
+      <c r="G17" s="91"/>
+      <c r="H17" s="91"/>
+      <c r="I17" s="91"/>
+      <c r="J17" s="91"/>
     </row>
     <row r="18" spans="2:10" ht="15" customHeight="1">
       <c r="B18" s="68"/>
@@ -4081,17 +4705,17 @@
       <c r="J18" s="68"/>
     </row>
     <row r="19" spans="2:10" ht="45" customHeight="1">
-      <c r="B19" s="92" t="s">
+      <c r="B19" s="91" t="s">
         <v>151</v>
       </c>
-      <c r="C19" s="92"/>
-      <c r="D19" s="92"/>
-      <c r="E19" s="92"/>
-      <c r="F19" s="92"/>
-      <c r="G19" s="92"/>
-      <c r="H19" s="92"/>
-      <c r="I19" s="92"/>
-      <c r="J19" s="92"/>
+      <c r="C19" s="91"/>
+      <c r="D19" s="91"/>
+      <c r="E19" s="91"/>
+      <c r="F19" s="91"/>
+      <c r="G19" s="91"/>
+      <c r="H19" s="91"/>
+      <c r="I19" s="91"/>
+      <c r="J19" s="91"/>
     </row>
     <row r="20" spans="2:10" ht="15" customHeight="1">
       <c r="B20" s="68"/>
@@ -4189,17 +4813,17 @@
       </c>
     </row>
     <row r="38" spans="2:10" ht="45" customHeight="1">
-      <c r="B38" s="92" t="s">
+      <c r="B38" s="91" t="s">
         <v>149</v>
       </c>
-      <c r="C38" s="92"/>
-      <c r="D38" s="92"/>
-      <c r="E38" s="92"/>
-      <c r="F38" s="92"/>
-      <c r="G38" s="92"/>
-      <c r="H38" s="92"/>
-      <c r="I38" s="92"/>
-      <c r="J38" s="92"/>
+      <c r="C38" s="91"/>
+      <c r="D38" s="91"/>
+      <c r="E38" s="91"/>
+      <c r="F38" s="91"/>
+      <c r="G38" s="91"/>
+      <c r="H38" s="91"/>
+      <c r="I38" s="91"/>
+      <c r="J38" s="91"/>
     </row>
     <row r="39" spans="2:10" ht="15" customHeight="1">
       <c r="B39" s="68"/>
@@ -4213,17 +4837,17 @@
       <c r="J39" s="68"/>
     </row>
     <row r="40" spans="2:10" ht="45" customHeight="1">
-      <c r="B40" s="92" t="s">
+      <c r="B40" s="91" t="s">
         <v>150</v>
       </c>
-      <c r="C40" s="92"/>
-      <c r="D40" s="92"/>
-      <c r="E40" s="92"/>
-      <c r="F40" s="92"/>
-      <c r="G40" s="92"/>
-      <c r="H40" s="92"/>
-      <c r="I40" s="92"/>
-      <c r="J40" s="92"/>
+      <c r="C40" s="91"/>
+      <c r="D40" s="91"/>
+      <c r="E40" s="91"/>
+      <c r="F40" s="91"/>
+      <c r="G40" s="91"/>
+      <c r="H40" s="91"/>
+      <c r="I40" s="91"/>
+      <c r="J40" s="91"/>
     </row>
     <row r="42" spans="2:10" ht="15.75" thickBot="1">
       <c r="B42" s="69"/>
@@ -4274,7 +4898,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{22D0A0B0-4909-4473-8349-3F698AE43E5B}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
@@ -4316,7 +4940,7 @@
       <c r="D3" s="19"/>
     </row>
     <row r="4" spans="2:4">
-      <c r="B4" s="93" t="s">
+      <c r="B4" s="99" t="s">
         <v>157</v>
       </c>
       <c r="C4" s="20" t="s">
@@ -4327,7 +4951,7 @@
       </c>
     </row>
     <row r="5" spans="2:4" ht="14.25" thickBot="1">
-      <c r="B5" s="95"/>
+      <c r="B5" s="100"/>
       <c r="C5" s="22" t="s">
         <v>159</v>
       </c>
@@ -4336,10 +4960,10 @@
       </c>
     </row>
     <row r="6" spans="2:4">
-      <c r="B6" s="100" t="s">
+      <c r="B6" s="92" t="s">
         <v>26</v>
       </c>
-      <c r="C6" s="103" t="s">
+      <c r="C6" s="95" t="s">
         <v>27</v>
       </c>
       <c r="D6" s="24" t="s">
@@ -4347,29 +4971,29 @@
       </c>
     </row>
     <row r="7" spans="2:4">
-      <c r="B7" s="101"/>
-      <c r="C7" s="104"/>
+      <c r="B7" s="93"/>
+      <c r="C7" s="96"/>
       <c r="D7" s="25" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="8" spans="2:4">
-      <c r="B8" s="101"/>
-      <c r="C8" s="104"/>
+      <c r="B8" s="93"/>
+      <c r="C8" s="96"/>
       <c r="D8" s="25" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="9" spans="2:4">
-      <c r="B9" s="101"/>
-      <c r="C9" s="105"/>
+      <c r="B9" s="93"/>
+      <c r="C9" s="97"/>
       <c r="D9" s="26" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="10" spans="2:4">
-      <c r="B10" s="101"/>
-      <c r="C10" s="104" t="s">
+      <c r="B10" s="93"/>
+      <c r="C10" s="96" t="s">
         <v>31</v>
       </c>
       <c r="D10" s="25" t="s">
@@ -4377,24 +5001,24 @@
       </c>
     </row>
     <row r="11" spans="2:4">
-      <c r="B11" s="101"/>
-      <c r="C11" s="104"/>
+      <c r="B11" s="93"/>
+      <c r="C11" s="96"/>
       <c r="D11" s="25" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="12" spans="2:4" ht="27.75" thickBot="1">
-      <c r="B12" s="102"/>
-      <c r="C12" s="106"/>
+      <c r="B12" s="94"/>
+      <c r="C12" s="98"/>
       <c r="D12" s="28" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="13" spans="2:4">
-      <c r="B13" s="93" t="s">
+      <c r="B13" s="99" t="s">
         <v>35</v>
       </c>
-      <c r="C13" s="96" t="s">
+      <c r="C13" s="102" t="s">
         <v>27</v>
       </c>
       <c r="D13" s="29" t="s">
@@ -4402,29 +5026,29 @@
       </c>
     </row>
     <row r="14" spans="2:4">
-      <c r="B14" s="94"/>
-      <c r="C14" s="97"/>
+      <c r="B14" s="101"/>
+      <c r="C14" s="103"/>
       <c r="D14" s="30" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="15" spans="2:4">
-      <c r="B15" s="94"/>
-      <c r="C15" s="97"/>
+      <c r="B15" s="101"/>
+      <c r="C15" s="103"/>
       <c r="D15" s="30" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="16" spans="2:4">
-      <c r="B16" s="94"/>
-      <c r="C16" s="98"/>
+      <c r="B16" s="101"/>
+      <c r="C16" s="104"/>
       <c r="D16" s="31" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="17" spans="2:4">
-      <c r="B17" s="94"/>
-      <c r="C17" s="97" t="s">
+      <c r="B17" s="101"/>
+      <c r="C17" s="103" t="s">
         <v>31</v>
       </c>
       <c r="D17" s="30" t="s">
@@ -4432,38 +5056,38 @@
       </c>
     </row>
     <row r="18" spans="2:4">
-      <c r="B18" s="94"/>
-      <c r="C18" s="97"/>
+      <c r="B18" s="101"/>
+      <c r="C18" s="103"/>
       <c r="D18" s="30" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="19" spans="2:4">
-      <c r="B19" s="94"/>
-      <c r="C19" s="97"/>
+      <c r="B19" s="101"/>
+      <c r="C19" s="103"/>
       <c r="D19" s="30" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="20" spans="2:4">
-      <c r="B20" s="94"/>
-      <c r="C20" s="97"/>
+      <c r="B20" s="101"/>
+      <c r="C20" s="103"/>
       <c r="D20" s="30" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="21" spans="2:4" ht="27.75" thickBot="1">
-      <c r="B21" s="95"/>
-      <c r="C21" s="99"/>
+      <c r="B21" s="100"/>
+      <c r="C21" s="105"/>
       <c r="D21" s="23" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="22" spans="2:4">
-      <c r="B22" s="100" t="s">
+      <c r="B22" s="92" t="s">
         <v>18</v>
       </c>
-      <c r="C22" s="103" t="s">
+      <c r="C22" s="95" t="s">
         <v>45</v>
       </c>
       <c r="D22" s="24" t="s">
@@ -4471,14 +5095,14 @@
       </c>
     </row>
     <row r="23" spans="2:4">
-      <c r="B23" s="101"/>
-      <c r="C23" s="105"/>
+      <c r="B23" s="93"/>
+      <c r="C23" s="97"/>
       <c r="D23" s="26" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="24" spans="2:4" ht="14.25" thickBot="1">
-      <c r="B24" s="102"/>
+      <c r="B24" s="94"/>
       <c r="C24" s="27" t="s">
         <v>48</v>
       </c>
@@ -4487,10 +5111,10 @@
       </c>
     </row>
     <row r="25" spans="2:4">
-      <c r="B25" s="93" t="s">
+      <c r="B25" s="99" t="s">
         <v>19</v>
       </c>
-      <c r="C25" s="96" t="s">
+      <c r="C25" s="102" t="s">
         <v>50</v>
       </c>
       <c r="D25" s="29" t="s">
@@ -4498,36 +5122,36 @@
       </c>
     </row>
     <row r="26" spans="2:4">
-      <c r="B26" s="94"/>
-      <c r="C26" s="97"/>
+      <c r="B26" s="101"/>
+      <c r="C26" s="103"/>
       <c r="D26" s="30" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="27" spans="2:4">
-      <c r="B27" s="94"/>
-      <c r="C27" s="97"/>
+      <c r="B27" s="101"/>
+      <c r="C27" s="103"/>
       <c r="D27" s="30" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="28" spans="2:4">
-      <c r="B28" s="94"/>
-      <c r="C28" s="97"/>
+      <c r="B28" s="101"/>
+      <c r="C28" s="103"/>
       <c r="D28" s="30" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="29" spans="2:4">
-      <c r="B29" s="94"/>
-      <c r="C29" s="98"/>
+      <c r="B29" s="101"/>
+      <c r="C29" s="104"/>
       <c r="D29" s="31" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="30" spans="2:4">
-      <c r="B30" s="94"/>
-      <c r="C30" s="97" t="s">
+      <c r="B30" s="101"/>
+      <c r="C30" s="103" t="s">
         <v>55</v>
       </c>
       <c r="D30" s="30" t="s">
@@ -4535,43 +5159,43 @@
       </c>
     </row>
     <row r="31" spans="2:4">
-      <c r="B31" s="94"/>
-      <c r="C31" s="97"/>
+      <c r="B31" s="101"/>
+      <c r="C31" s="103"/>
       <c r="D31" s="30" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="32" spans="2:4">
-      <c r="B32" s="94"/>
-      <c r="C32" s="97"/>
+      <c r="B32" s="101"/>
+      <c r="C32" s="103"/>
       <c r="D32" s="30" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="33" spans="2:4">
-      <c r="B33" s="94"/>
-      <c r="C33" s="97"/>
+      <c r="B33" s="101"/>
+      <c r="C33" s="103"/>
       <c r="D33" s="30" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="34" spans="2:4">
-      <c r="B34" s="94"/>
-      <c r="C34" s="97"/>
+      <c r="B34" s="101"/>
+      <c r="C34" s="103"/>
       <c r="D34" s="30" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="35" spans="2:4">
-      <c r="B35" s="94"/>
-      <c r="C35" s="97"/>
+      <c r="B35" s="101"/>
+      <c r="C35" s="103"/>
       <c r="D35" s="30" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="36" spans="2:4" ht="14.25" thickBot="1">
-      <c r="B36" s="95"/>
-      <c r="C36" s="99"/>
+      <c r="B36" s="100"/>
+      <c r="C36" s="105"/>
       <c r="D36" s="23" t="s">
         <v>25</v>
       </c>
@@ -4584,10 +5208,10 @@
       <c r="D37" s="34"/>
     </row>
     <row r="38" spans="2:4">
-      <c r="B38" s="100" t="s">
+      <c r="B38" s="92" t="s">
         <v>26</v>
       </c>
-      <c r="C38" s="103" t="s">
+      <c r="C38" s="95" t="s">
         <v>27</v>
       </c>
       <c r="D38" s="24" t="s">
@@ -4595,22 +5219,22 @@
       </c>
     </row>
     <row r="39" spans="2:4">
-      <c r="B39" s="101"/>
-      <c r="C39" s="104"/>
+      <c r="B39" s="93"/>
+      <c r="C39" s="96"/>
       <c r="D39" s="25" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="40" spans="2:4">
-      <c r="B40" s="101"/>
-      <c r="C40" s="105"/>
+      <c r="B40" s="93"/>
+      <c r="C40" s="97"/>
       <c r="D40" s="26" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="41" spans="2:4">
-      <c r="B41" s="101"/>
-      <c r="C41" s="104" t="s">
+      <c r="B41" s="93"/>
+      <c r="C41" s="96" t="s">
         <v>31</v>
       </c>
       <c r="D41" s="25" t="s">
@@ -4618,31 +5242,31 @@
       </c>
     </row>
     <row r="42" spans="2:4">
-      <c r="B42" s="101"/>
-      <c r="C42" s="104"/>
+      <c r="B42" s="93"/>
+      <c r="C42" s="96"/>
       <c r="D42" s="25" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="43" spans="2:4">
-      <c r="B43" s="101"/>
-      <c r="C43" s="104"/>
+      <c r="B43" s="93"/>
+      <c r="C43" s="96"/>
       <c r="D43" s="25" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="44" spans="2:4" ht="14.25" thickBot="1">
-      <c r="B44" s="102"/>
-      <c r="C44" s="106"/>
+      <c r="B44" s="94"/>
+      <c r="C44" s="98"/>
       <c r="D44" s="28" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="45" spans="2:4">
-      <c r="B45" s="93" t="s">
+      <c r="B45" s="99" t="s">
         <v>35</v>
       </c>
-      <c r="C45" s="96" t="s">
+      <c r="C45" s="102" t="s">
         <v>27</v>
       </c>
       <c r="D45" s="29" t="s">
@@ -4650,36 +5274,36 @@
       </c>
     </row>
     <row r="46" spans="2:4">
-      <c r="B46" s="94"/>
-      <c r="C46" s="97"/>
+      <c r="B46" s="101"/>
+      <c r="C46" s="103"/>
       <c r="D46" s="30" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="47" spans="2:4">
-      <c r="B47" s="94"/>
-      <c r="C47" s="97"/>
+      <c r="B47" s="101"/>
+      <c r="C47" s="103"/>
       <c r="D47" s="30" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="48" spans="2:4">
-      <c r="B48" s="94"/>
-      <c r="C48" s="97"/>
+      <c r="B48" s="101"/>
+      <c r="C48" s="103"/>
       <c r="D48" s="30" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="49" spans="2:4">
-      <c r="B49" s="94"/>
-      <c r="C49" s="98"/>
+      <c r="B49" s="101"/>
+      <c r="C49" s="104"/>
       <c r="D49" s="31" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="50" spans="2:4">
-      <c r="B50" s="94"/>
-      <c r="C50" s="97" t="s">
+      <c r="B50" s="101"/>
+      <c r="C50" s="103" t="s">
         <v>31</v>
       </c>
       <c r="D50" s="30" t="s">
@@ -4687,31 +5311,31 @@
       </c>
     </row>
     <row r="51" spans="2:4">
-      <c r="B51" s="94"/>
-      <c r="C51" s="97"/>
+      <c r="B51" s="101"/>
+      <c r="C51" s="103"/>
       <c r="D51" s="30" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="52" spans="2:4">
-      <c r="B52" s="94"/>
-      <c r="C52" s="97"/>
+      <c r="B52" s="101"/>
+      <c r="C52" s="103"/>
       <c r="D52" s="30" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="53" spans="2:4" ht="14.25" thickBot="1">
-      <c r="B53" s="95"/>
-      <c r="C53" s="99"/>
+      <c r="B53" s="100"/>
+      <c r="C53" s="105"/>
       <c r="D53" s="23" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="54" spans="2:4">
-      <c r="B54" s="100" t="s">
+      <c r="B54" s="92" t="s">
         <v>18</v>
       </c>
-      <c r="C54" s="103" t="s">
+      <c r="C54" s="95" t="s">
         <v>45</v>
       </c>
       <c r="D54" s="24" t="s">
@@ -4719,22 +5343,22 @@
       </c>
     </row>
     <row r="55" spans="2:4">
-      <c r="B55" s="101"/>
-      <c r="C55" s="104"/>
+      <c r="B55" s="93"/>
+      <c r="C55" s="96"/>
       <c r="D55" s="25" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="56" spans="2:4">
-      <c r="B56" s="101"/>
-      <c r="C56" s="105"/>
+      <c r="B56" s="93"/>
+      <c r="C56" s="97"/>
       <c r="D56" s="26" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="57" spans="2:4">
-      <c r="B57" s="101"/>
-      <c r="C57" s="104" t="s">
+      <c r="B57" s="93"/>
+      <c r="C57" s="96" t="s">
         <v>48</v>
       </c>
       <c r="D57" s="25" t="s">
@@ -4742,24 +5366,24 @@
       </c>
     </row>
     <row r="58" spans="2:4">
-      <c r="B58" s="101"/>
-      <c r="C58" s="104"/>
+      <c r="B58" s="93"/>
+      <c r="C58" s="96"/>
       <c r="D58" s="25" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="59" spans="2:4" ht="14.25" thickBot="1">
-      <c r="B59" s="102"/>
-      <c r="C59" s="106"/>
+      <c r="B59" s="94"/>
+      <c r="C59" s="98"/>
       <c r="D59" s="28" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="60" spans="2:4">
-      <c r="B60" s="93" t="s">
+      <c r="B60" s="99" t="s">
         <v>19</v>
       </c>
-      <c r="C60" s="96" t="s">
+      <c r="C60" s="102" t="s">
         <v>50</v>
       </c>
       <c r="D60" s="29" t="s">
@@ -4767,22 +5391,22 @@
       </c>
     </row>
     <row r="61" spans="2:4">
-      <c r="B61" s="94"/>
-      <c r="C61" s="97"/>
+      <c r="B61" s="101"/>
+      <c r="C61" s="103"/>
       <c r="D61" s="30" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="62" spans="2:4">
-      <c r="B62" s="94"/>
-      <c r="C62" s="98"/>
+      <c r="B62" s="101"/>
+      <c r="C62" s="104"/>
       <c r="D62" s="31" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="63" spans="2:4">
-      <c r="B63" s="94"/>
-      <c r="C63" s="97" t="s">
+      <c r="B63" s="101"/>
+      <c r="C63" s="103" t="s">
         <v>55</v>
       </c>
       <c r="D63" s="30" t="s">
@@ -4790,15 +5414,15 @@
       </c>
     </row>
     <row r="64" spans="2:4">
-      <c r="B64" s="94"/>
-      <c r="C64" s="97"/>
+      <c r="B64" s="101"/>
+      <c r="C64" s="103"/>
       <c r="D64" s="30" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="65" spans="2:4" ht="14.25" thickBot="1">
-      <c r="B65" s="95"/>
-      <c r="C65" s="99"/>
+      <c r="B65" s="100"/>
+      <c r="C65" s="105"/>
       <c r="D65" s="23" t="s">
         <v>85</v>
       </c>
@@ -4806,6 +5430,15 @@
     <row r="66" spans="2:4"/>
   </sheetData>
   <mergeCells count="24">
+    <mergeCell ref="B60:B65"/>
+    <mergeCell ref="C60:C62"/>
+    <mergeCell ref="C63:C65"/>
+    <mergeCell ref="B45:B53"/>
+    <mergeCell ref="C45:C49"/>
+    <mergeCell ref="C50:C53"/>
+    <mergeCell ref="B54:B59"/>
+    <mergeCell ref="C54:C56"/>
+    <mergeCell ref="C57:C59"/>
     <mergeCell ref="B38:B44"/>
     <mergeCell ref="C38:C40"/>
     <mergeCell ref="C41:C44"/>
@@ -4821,15 +5454,6 @@
     <mergeCell ref="B25:B36"/>
     <mergeCell ref="C25:C29"/>
     <mergeCell ref="C30:C36"/>
-    <mergeCell ref="B60:B65"/>
-    <mergeCell ref="C60:C62"/>
-    <mergeCell ref="C63:C65"/>
-    <mergeCell ref="B45:B53"/>
-    <mergeCell ref="C45:C49"/>
-    <mergeCell ref="C50:C53"/>
-    <mergeCell ref="B54:B59"/>
-    <mergeCell ref="C54:C56"/>
-    <mergeCell ref="C57:C59"/>
   </mergeCells>
   <pageMargins left="0.48" right="0.39" top="0.53" bottom="0.47" header="0.33" footer="0.26"/>
   <pageSetup scale="74" orientation="portrait" verticalDpi="300" r:id="rId1"/>
@@ -4837,7 +5461,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CEA932AA-7900-4DDA-8068-68063BC2922A}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
@@ -4875,7 +5499,7 @@
       </c>
     </row>
     <row r="3" spans="2:5" ht="48" customHeight="1">
-      <c r="B3" s="107" t="s">
+      <c r="B3" s="106" t="s">
         <v>89</v>
       </c>
       <c r="C3" s="40" t="s">
@@ -4887,7 +5511,7 @@
       </c>
     </row>
     <row r="4" spans="2:5" ht="48" customHeight="1" thickBot="1">
-      <c r="B4" s="108"/>
+      <c r="B4" s="107"/>
       <c r="C4" s="43" t="s">
         <v>92</v>
       </c>
@@ -4897,10 +5521,10 @@
       </c>
     </row>
     <row r="5" spans="2:5" ht="47.25" customHeight="1">
-      <c r="B5" s="109" t="s">
+      <c r="B5" s="108" t="s">
         <v>94</v>
       </c>
-      <c r="C5" s="112" t="s">
+      <c r="C5" s="111" t="s">
         <v>95</v>
       </c>
       <c r="D5" s="46" t="s">
@@ -4911,8 +5535,8 @@
       </c>
     </row>
     <row r="6" spans="2:5" ht="47.25" customHeight="1">
-      <c r="B6" s="110"/>
-      <c r="C6" s="113"/>
+      <c r="B6" s="109"/>
+      <c r="C6" s="112"/>
       <c r="D6" s="48" t="s">
         <v>98</v>
       </c>
@@ -4921,8 +5545,8 @@
       </c>
     </row>
     <row r="7" spans="2:5" ht="47.25" customHeight="1">
-      <c r="B7" s="110"/>
-      <c r="C7" s="114" t="s">
+      <c r="B7" s="109"/>
+      <c r="C7" s="113" t="s">
         <v>100</v>
       </c>
       <c r="D7" s="48" t="s">
@@ -4933,8 +5557,8 @@
       </c>
     </row>
     <row r="8" spans="2:5" ht="47.25" customHeight="1" thickBot="1">
-      <c r="B8" s="111"/>
-      <c r="C8" s="115"/>
+      <c r="B8" s="110"/>
+      <c r="C8" s="114"/>
       <c r="D8" s="50" t="s">
         <v>98</v>
       </c>
@@ -4943,10 +5567,10 @@
       </c>
     </row>
     <row r="9" spans="2:5" ht="41.25" customHeight="1">
-      <c r="B9" s="107" t="s">
+      <c r="B9" s="106" t="s">
         <v>103</v>
       </c>
-      <c r="C9" s="117" t="s">
+      <c r="C9" s="116" t="s">
         <v>104</v>
       </c>
       <c r="D9" s="52" t="s">
@@ -4957,8 +5581,8 @@
       </c>
     </row>
     <row r="10" spans="2:5" ht="41.25" customHeight="1">
-      <c r="B10" s="116"/>
-      <c r="C10" s="118"/>
+      <c r="B10" s="115"/>
+      <c r="C10" s="117"/>
       <c r="D10" s="54" t="s">
         <v>107</v>
       </c>
@@ -4967,8 +5591,8 @@
       </c>
     </row>
     <row r="11" spans="2:5" ht="41.25" customHeight="1">
-      <c r="B11" s="116"/>
-      <c r="C11" s="119"/>
+      <c r="B11" s="115"/>
+      <c r="C11" s="118"/>
       <c r="D11" s="54" t="s">
         <v>109</v>
       </c>
@@ -4977,7 +5601,7 @@
       </c>
     </row>
     <row r="12" spans="2:5" ht="41.25" customHeight="1">
-      <c r="B12" s="116"/>
+      <c r="B12" s="115"/>
       <c r="C12" s="56" t="s">
         <v>109</v>
       </c>
@@ -4987,7 +5611,7 @@
       </c>
     </row>
     <row r="13" spans="2:5" ht="43.5" customHeight="1" thickBot="1">
-      <c r="B13" s="108"/>
+      <c r="B13" s="107"/>
       <c r="C13" s="43" t="s">
         <v>111</v>
       </c>
@@ -5012,7 +5636,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D48DCC66-EA8E-48AC-A9DD-150E8DCA1498}">
   <dimension ref="A1"/>
   <sheetViews>
